--- a/nodcodes.xlsx
+++ b/nodcodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardharrison/home/git_repos/nod/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B758475-2F61-204D-97E3-3642F3011212}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4D6E0669-C580-7F42-A1FA-3876E9FC3A3B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14660" xr2:uid="{00FC1946-ADDB-4043-8FC8-FC2DB26E8066}"/>
+    <workbookView xWindow="360" yWindow="780" windowWidth="25440" windowHeight="14660" xr2:uid="{00FC1946-ADDB-4043-8FC8-FC2DB26E8066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -555,9 +563,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,11 +883,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66FAB83-F625-B648-B198-880638D7EACF}">
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="23.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1755,7 +1768,7 @@
       <c r="N9" t="s">
         <v>103</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P9" t="s">
@@ -1859,7 +1872,7 @@
       <c r="N10" t="s">
         <v>109</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="2" t="s">
         <v>110</v>
       </c>
       <c r="P10" t="s">
@@ -1963,7 +1976,7 @@
       <c r="N11" t="s">
         <v>115</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="2" t="s">
         <v>116</v>
       </c>
       <c r="P11" t="s">
@@ -2067,7 +2080,7 @@
       <c r="N12" t="s">
         <v>121</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="2" t="s">
         <v>122</v>
       </c>
       <c r="P12" t="s">
@@ -2171,7 +2184,7 @@
       <c r="N13" t="s">
         <v>127</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="2" t="s">
         <v>128</v>
       </c>
       <c r="P13" t="s">
@@ -2275,7 +2288,7 @@
       <c r="N14" t="s">
         <v>133</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="2" t="s">
         <v>134</v>
       </c>
       <c r="P14" t="s">
@@ -2379,7 +2392,7 @@
       <c r="N15" t="s">
         <v>140</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="2" t="s">
         <v>141</v>
       </c>
       <c r="P15" t="s">
@@ -2483,7 +2496,7 @@
       <c r="N16" t="s">
         <v>147</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="2" t="s">
         <v>148</v>
       </c>
       <c r="P16" t="s">
